--- a/modules/custom/nfafmis_migrate/files/NFA_CFRs.xlsx
+++ b/modules/custom/nfafmis_migrate/files/NFA_CFRs.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$506</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="521">
   <si>
     <t xml:space="preserve">Management Unit</t>
   </si>
@@ -298,7 +301,7 @@
     <t xml:space="preserve">Kagadi</t>
   </si>
   <si>
-    <t xml:space="preserve">Kagogo</t>
+    <t xml:space="preserve">Kagogo (Budongo System)</t>
   </si>
   <si>
     <t xml:space="preserve">Kagombe</t>
@@ -337,7 +340,7 @@
     <t xml:space="preserve">Kijuna</t>
   </si>
   <si>
-    <t xml:space="preserve">Kitonya</t>
+    <t xml:space="preserve">Kitonya (Budongo System)</t>
   </si>
   <si>
     <t xml:space="preserve">Kyahaiguru</t>
@@ -355,10 +358,13 @@
     <t xml:space="preserve">Masindi</t>
   </si>
   <si>
-    <t xml:space="preserve">Mbale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mpanga</t>
+    <t xml:space="preserve">Katuugo Plantations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale (Katuugo Plantations)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mpanga (Budongo System)</t>
   </si>
   <si>
     <t xml:space="preserve">Muhunga</t>
@@ -460,9 +466,6 @@
     <t xml:space="preserve">Zulia</t>
   </si>
   <si>
-    <t xml:space="preserve">Katuugo Plantations</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kabwika-Mujwalanganda</t>
   </si>
   <si>
@@ -604,6 +607,9 @@
     <t xml:space="preserve">Luvunya</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbale (Kyoga)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Modoci</t>
   </si>
   <si>
@@ -847,7 +853,7 @@
     <t xml:space="preserve">Kuzito</t>
   </si>
   <si>
-    <t xml:space="preserve">Kyampisi</t>
+    <t xml:space="preserve">Kyampisi (Lakeshore)</t>
   </si>
   <si>
     <t xml:space="preserve">Kyansonzi</t>
@@ -886,6 +892,9 @@
     <t xml:space="preserve">Makokolero</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpanga (Lakeshore)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mugomba</t>
   </si>
   <si>
@@ -1105,6 +1114,9 @@
     <t xml:space="preserve">Kabukira</t>
   </si>
   <si>
+    <t xml:space="preserve">Kagogo (Muzizi River)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kajonde</t>
   </si>
   <si>
@@ -1139,6 +1151,12 @@
   </si>
   <si>
     <t xml:space="preserve">Kitechura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitonya (Muzizi River)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyampisi (Muzizi River)</t>
   </si>
   <si>
     <t xml:space="preserve">Lukuga</t>
@@ -1677,13 +1695,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B508"/>
+  <dimension ref="A1:B506"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.57"/>
@@ -2409,7 +2427,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>83</v>
       </c>
@@ -2513,7 +2531,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>83</v>
       </c>
@@ -2561,20 +2579,20 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>83</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2582,7 +2600,7 @@
         <v>83</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2590,7 +2608,7 @@
         <v>83</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2598,7 +2616,7 @@
         <v>83</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,7 +2624,7 @@
         <v>83</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2614,7 +2632,7 @@
         <v>83</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2622,7 +2640,7 @@
         <v>83</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2630,7 +2648,7 @@
         <v>83</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,7 +2656,7 @@
         <v>83</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2646,7 +2664,7 @@
         <v>83</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2654,7 +2672,7 @@
         <v>83</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2662,7 +2680,7 @@
         <v>83</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2670,7 +2688,7 @@
         <v>83</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2678,7 +2696,7 @@
         <v>83</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2686,7 +2704,7 @@
         <v>83</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,7 +2712,7 @@
         <v>83</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,7 +2720,7 @@
         <v>83</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,132 +2728,132 @@
         <v>83</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="B144" s="0" t="s">
         <v>147</v>
@@ -2843,7 +2861,7 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>148</v>
@@ -2851,7 +2869,7 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="B146" s="0" t="s">
         <v>149</v>
@@ -2859,7 +2877,7 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>150</v>
@@ -2867,7 +2885,7 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>151</v>
@@ -2875,7 +2893,7 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>152</v>
@@ -2883,7 +2901,7 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>153</v>
@@ -2891,7 +2909,7 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="B151" s="0" t="s">
         <v>154</v>
@@ -2974,7 +2992,7 @@
         <v>155</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,7 +3000,7 @@
         <v>155</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2990,7 +3008,7 @@
         <v>155</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2998,7 +3016,7 @@
         <v>155</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,7 +3024,7 @@
         <v>155</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3014,7 +3032,7 @@
         <v>155</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3022,7 +3040,7 @@
         <v>155</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3030,7 +3048,7 @@
         <v>155</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,7 +3056,7 @@
         <v>155</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,7 +3064,7 @@
         <v>155</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3054,7 +3072,7 @@
         <v>155</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3062,7 +3080,7 @@
         <v>155</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3070,7 +3088,7 @@
         <v>155</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3078,7 +3096,7 @@
         <v>155</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3086,7 +3104,7 @@
         <v>155</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3094,7 +3112,7 @@
         <v>155</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3102,7 +3120,7 @@
         <v>155</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,7 +3128,7 @@
         <v>155</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3118,7 +3136,7 @@
         <v>155</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,7 +3144,7 @@
         <v>155</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3134,7 +3152,7 @@
         <v>155</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3142,7 +3160,7 @@
         <v>155</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3150,7 +3168,7 @@
         <v>155</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3158,7 +3176,7 @@
         <v>155</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3166,7 +3184,7 @@
         <v>155</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3174,7 +3192,7 @@
         <v>155</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3182,7 +3200,7 @@
         <v>155</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,7 +3208,7 @@
         <v>155</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3198,15 +3216,15 @@
         <v>155</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>155</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3214,7 +3232,7 @@
         <v>155</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3222,7 +3240,7 @@
         <v>155</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3230,7 +3248,7 @@
         <v>155</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3238,7 +3256,7 @@
         <v>155</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3246,7 +3264,7 @@
         <v>155</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3254,7 +3272,7 @@
         <v>155</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3262,7 +3280,7 @@
         <v>155</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3270,7 +3288,7 @@
         <v>155</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3278,7 +3296,7 @@
         <v>155</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3286,7 +3304,7 @@
         <v>155</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3294,7 +3312,7 @@
         <v>155</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,7 +3320,7 @@
         <v>155</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,7 +3328,7 @@
         <v>155</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,7 +3336,7 @@
         <v>155</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3326,7 +3344,7 @@
         <v>155</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3334,7 +3352,7 @@
         <v>155</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3342,7 +3360,7 @@
         <v>155</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3350,7 +3368,7 @@
         <v>155</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,7 +3376,7 @@
         <v>155</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3366,7 +3384,7 @@
         <v>155</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3374,7 +3392,7 @@
         <v>155</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3382,7 +3400,7 @@
         <v>155</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3390,7 +3408,7 @@
         <v>155</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,7 +3416,7 @@
         <v>155</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3406,7 +3424,7 @@
         <v>155</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3414,7 +3432,7 @@
         <v>155</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3422,7 +3440,7 @@
         <v>155</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3430,7 +3448,7 @@
         <v>155</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3438,7 +3456,7 @@
         <v>155</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,7 +3464,7 @@
         <v>155</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3454,7 +3472,7 @@
         <v>155</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3462,7 +3480,7 @@
         <v>155</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3470,7 +3488,7 @@
         <v>155</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3478,2279 +3496,2263 @@
         <v>155</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>112</v>
+        <v>290</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>228</v>
+        <v>333</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>92</v>
+        <v>364</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>261</v>
+        <v>372</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>105</v>
+        <v>378</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>275</v>
+        <v>379</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B452" s="0" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
-        <v>399</v>
+        <v>464</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B487" s="0" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B492" s="0" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B493" s="0" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="B507" s="0" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="B508" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
